--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -11,139 +11,156 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
-  <si>
-    <t>Experimenters:</t>
-  </si>
-  <si>
-    <t>File name</t>
-  </si>
-  <si>
-    <t>Scan numbers and plotting</t>
-  </si>
-  <si>
-    <t>Energy range</t>
-  </si>
-  <si>
-    <t>Sample metadata</t>
-  </si>
-  <si>
-    <t>Scan parameters</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>Slot number</t>
-  </si>
-  <si>
-    <t>Measure this slot?</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Number of repetitions</t>
-  </si>
-  <si>
-    <t>Starting scan number</t>
-  </si>
-  <si>
-    <t>Plotting mode</t>
-  </si>
-  <si>
-    <t>e0</t>
-  </si>
-  <si>
-    <t>Element symbol</t>
-  </si>
-  <si>
-    <t>Absorption edge</t>
-  </si>
-  <si>
-    <t>Focused/ unfocused beam</t>
-  </si>
-  <si>
-    <t>Sample composition or stoichiometry</t>
-  </si>
-  <si>
-    <t>Preparation of sample for XAS measurement</t>
-  </si>
-  <si>
-    <t>Comment – anything else you want to say about your sample</t>
-  </si>
-  <si>
-    <t>Scan boundaries</t>
-  </si>
-  <si>
-    <t>Step sizes</t>
-  </si>
-  <si>
-    <t>Integration times</t>
-  </si>
-  <si>
-    <t>snapshots</t>
-  </si>
-  <si>
-    <t>htmlpage</t>
-  </si>
-  <si>
-    <t>usbstick</t>
-  </si>
-  <si>
-    <t>bothways</t>
-  </si>
-  <si>
-    <t>channelcut</t>
-  </si>
-  <si>
-    <t>ththth</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>best_sample_ever</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>transmission</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>unfocused</t>
-  </si>
-  <si>
-    <t>YBa2Cu3O7</t>
-  </si>
-  <si>
-    <t>powder on tape</t>
-  </si>
-  <si>
-    <t>Welcome to BMM</t>
-  </si>
-  <si>
-    <t>-200  -30  -10 15.5  15k</t>
-  </si>
-  <si>
-    <t>10  2  0.5  0.05k</t>
-  </si>
-  <si>
-    <t>0.5  0.5  0.5  0.5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">Experimenters:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan numbers and plotting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample metadata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measure this slot?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of repetitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starting scan number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plotting mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Element symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absorption edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focused/ unfocused beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample composition or stoichiometry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparation of sample for XAS measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment – anything else you want to say about your sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scan boundaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample X (absolute position, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample y (absolute position, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slit width (absolute width, mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snapshots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">htmlpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">usbstick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bothways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">channelcut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ththth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best_sample_ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unfocused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YBa2Cu3O7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powder on tape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to BMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-200  -30  -10 15.5  15k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10  2  0.5  0.05k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
   </si>
 </sst>
 </file>
@@ -151,7 +168,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
@@ -196,13 +213,13 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Bitstream Vera Sans"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Bitstream Vera Sans"/>
-      <family val="2"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="4">
@@ -225,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -275,6 +292,19 @@
         <color rgb="FFCCCCCC"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
@@ -336,9 +366,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left style="thin"/>
       <right style="thin"/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -374,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,6 +471,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -463,15 +495,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,19 +511,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -503,7 +535,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,6 +583,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -561,12 +601,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -642,9 +682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1229040</xdr:colOff>
+      <xdr:colOff>1228320</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -658,7 +698,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2720880" cy="2745720"/>
+          <a:ext cx="2721240" cy="2745000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -679,9 +719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>779040</xdr:colOff>
+      <xdr:colOff>778320</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -690,8 +730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3390120" y="6959880"/>
-          <a:ext cx="5851440" cy="1647000"/>
+          <a:off x="3392280" y="6959880"/>
+          <a:ext cx="5859360" cy="1646280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,22 +753,37 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360"/>
+        <a:bodyPr lIns="73080" rIns="36360" tIns="36360" bIns="36360">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="en-US" sz="1300" strike="noStrike" u="sng">
+            <a:rPr b="1" lang="en-US" sz="1300" spc="-1" strike="noStrike" u="sng">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
+              <a:uFillTx/>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
             <a:t>Instructions:</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1300" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -736,11 +791,18 @@
             </a:rPr>
             <a:t>1. Add the names of all team members to the green box in row 1</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -748,11 +810,18 @@
             </a:rPr>
             <a:t>2. Default values for all parameters go in line 6</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -760,11 +829,18 @@
             </a:rPr>
             <a:t>3. Sample-specific parameters are entered in rows 7+</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -772,31 +848,66 @@
             </a:rPr>
             <a:t>4. Default values from line 6 will be used for all cells left blank in rows 7+</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Do not add rows above row 7</a:t>
+            <a:t>5. Specify motor/slit positions in columns R,S,T; leave blank for no motion </a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1200" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>6. Do not add columns before column W</a:t>
+            <a:t>6. Do not add rows above row 7</a:t>
           </a:r>
-          <a:endParaRPr/>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>7. Do not add columns before column Z</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -810,27 +921,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AMJ30"/>
+  <dimension ref="B1:AA30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="S7" activeCellId="0" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7755102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="29.6275510204082"/>
-    <col collapsed="false" hidden="false" max="17" min="15" style="0" width="22.1377551020408"/>
-    <col collapsed="false" hidden="true" max="23" min="18" style="1" width="0"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -857,6 +966,9 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
       <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4"/>
@@ -869,12 +981,15 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="Q2" s="6"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="5"/>
       <c r="V2" s="0"/>
-      <c r="W2" s="5"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
@@ -887,12 +1002,15 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="Q3" s="6"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="0"/>
-      <c r="T3" s="0"/>
-      <c r="U3" s="0"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="5"/>
       <c r="V3" s="0"/>
-      <c r="W3" s="5"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
@@ -926,866 +1044,905 @@
       </c>
       <c r="S4" s="9"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="U4" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="R5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="T5" s="16" t="s">
         <v>26</v>
       </c>
+      <c r="U5" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="V5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" s="18" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="19" t="s">
+      <c r="W5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="X5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="Y5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="Z5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="18"/>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="23" t="n">
+      <c r="F6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="24" t="n">
         <v>8979</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="28" t="s">
+      <c r="I6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="J6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="K6" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="31" t="s">
+      <c r="L6" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="Q6" s="32" t="s">
+      <c r="M6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="R6" s="33" t="n">
+      <c r="N6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="R6" s="34"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="35" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="S6" s="34" t="n">
+      <c r="V6" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="T6" s="34" t="n">
+      <c r="W6" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U6" s="34" t="n">
+      <c r="X6" s="36" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="V6" s="34" t="n">
+      <c r="Y6" s="36" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="W6" s="35" t="n">
+      <c r="Z6" s="37" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
+      <c r="AA6" s="38"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="n">
+      <c r="B7" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="36"/>
+      <c r="C7" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="38"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="18"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="44"/>
+      <c r="T7" s="45"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="n">
+      <c r="B8" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="36"/>
+      <c r="C8" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="38"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="18"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="44"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
+      <c r="X8" s="47"/>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="n">
+      <c r="B9" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="18"/>
+      <c r="C9" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="19"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
-      <c r="V9" s="44"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="18"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="44"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
+      <c r="X9" s="47"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="37" t="n">
+      <c r="B10" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18"/>
+      <c r="C10" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="18"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="44"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="n">
+      <c r="B11" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="18"/>
+      <c r="C11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="19"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="18"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="44"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="37" t="n">
+      <c r="B12" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="18"/>
+      <c r="C12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="19"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="41"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="18"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="19"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="n">
+      <c r="B13" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="18"/>
+      <c r="C13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="19"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="41"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="18"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="47"/>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="37" t="n">
+      <c r="B14" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18"/>
+      <c r="C14" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="19"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="41"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="18"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="44"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="37" t="n">
+      <c r="B15" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="18"/>
+      <c r="C15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="41"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="18"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="44"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="37" t="n">
+      <c r="B16" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="18"/>
+      <c r="C16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="18"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="44"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
+      <c r="X16" s="47"/>
+      <c r="Y16" s="47"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="37" t="n">
+      <c r="B17" s="39" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="18"/>
+      <c r="C17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="41"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="18"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="37" t="n">
+      <c r="B18" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="18"/>
+      <c r="C18" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="19"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="18"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="44"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="37" t="n">
+      <c r="B19" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="18"/>
+      <c r="C19" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="19"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="18"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="44"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="37" t="n">
+      <c r="B20" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="18"/>
+      <c r="C20" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="19"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="41"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="18"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="44"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="37" t="n">
+      <c r="B21" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="18"/>
+      <c r="C21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="19"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="18"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="44"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="37" t="n">
+      <c r="B22" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="18"/>
+      <c r="C22" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="19"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="18"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="44"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="37" t="n">
+      <c r="B23" s="39" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="18"/>
+      <c r="C23" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="19"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="18"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="44"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="19"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="37" t="n">
+      <c r="B24" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="18"/>
+      <c r="C24" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="19"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="18"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="44"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="37" t="n">
+      <c r="B25" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="18"/>
+      <c r="C25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="19"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="18"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="44"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="37" t="n">
+      <c r="B26" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="18"/>
+      <c r="C26" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="19"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="18"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="44"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="37" t="n">
+      <c r="B27" s="39" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="18"/>
+      <c r="C27" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="19"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="18"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="44"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="19"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="37" t="n">
+      <c r="B28" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="18"/>
+      <c r="C28" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="19"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="18"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="44"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="19"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="37" t="n">
+      <c r="B29" s="39" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="18"/>
+      <c r="C29" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="19"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="41"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="18"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="44"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="37" t="n">
+      <c r="B30" s="39" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="18"/>
+      <c r="C30" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="19"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="41"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="18"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="44"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:W1"/>
+    <mergeCell ref="E1:Z1"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:Z4"/>
   </mergeCells>
-  <dataValidations count="9">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:W30" type="list">
+  <dataValidations count="14">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1821,10 +1978,30 @@
       <formula1>4500</formula1>
       <formula2>23500</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:T30" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:S30" type="decimal">
+      <formula1>10</formula1>
+      <formula2>400</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:R30" type="decimal">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6" type="decimal">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t xml:space="preserve">Experimenters:</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Scan numbers and plotting</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy range</t>
+    <t xml:space="preserve">Photon delivery</t>
   </si>
   <si>
     <t xml:space="preserve">Sample metadata</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plotting mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e0</t>
   </si>
   <si>
     <t xml:space="preserve">Element symbol</t>
@@ -242,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -258,8 +255,22 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -311,18 +322,7 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
+      <left style="hair"/>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
       </right>
@@ -346,6 +346,28 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
@@ -402,7 +424,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -443,6 +465,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,11 +481,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -467,7 +497,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,24 +513,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -515,23 +537,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -539,7 +561,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -551,7 +577,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,7 +585,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -567,7 +593,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -579,11 +605,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,7 +621,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1228320</xdr:colOff>
+      <xdr:colOff>1227600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -698,7 +724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2721240" cy="2745000"/>
+          <a:ext cx="2518560" cy="2744280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,10 +744,10 @@
       <xdr:rowOff>106560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>778320</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>919080</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -730,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3392280" y="6959880"/>
-          <a:ext cx="5859360" cy="1646280"/>
+          <a:off x="3190320" y="6959880"/>
+          <a:ext cx="4648320" cy="1645560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -921,25 +947,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AA30"/>
+  <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S7" activeCellId="0" sqref="S7"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="29.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -968,49 +1002,46 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="5"/>
+      <c r="Y2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
-      <c r="Y3" s="0"/>
-      <c r="Z3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
@@ -1028,929 +1059,899 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9" t="s">
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="P5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="S5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="V5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="X5" s="10" t="s">
+      <c r="X5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="10" t="s">
+      <c r="Y5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="20"/>
+    </row>
+    <row r="6" s="21" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="AA5" s="18"/>
-    </row>
-    <row r="6" s="19" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="E6" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="H6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="24" t="n">
-        <v>8979</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="33" t="s">
-        <v>46</v>
-      </c>
+      <c r="Q6" s="35"/>
       <c r="R6" s="34"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="35" t="n">
+      <c r="S6" s="34"/>
+      <c r="T6" s="36" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="36" t="n">
+      <c r="U6" s="37" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="36" t="n">
+      <c r="V6" s="37" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="36" t="n">
+      <c r="W6" s="37" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="36" t="n">
+      <c r="X6" s="37" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="37" t="n">
+      <c r="Y6" s="38" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="38"/>
+      <c r="Z6" s="39"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="38"/>
+      <c r="C7" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="39"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="38"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="45"/>
       <c r="N7" s="44"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="44"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="19"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="45"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="47"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="39" t="n">
+      <c r="B8" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="38"/>
+      <c r="C8" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="39"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="38"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="44"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="44"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="47"/>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="19"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="45"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="48"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="48"/>
+      <c r="X8" s="48"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="39" t="n">
+      <c r="B9" s="40" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="19"/>
+      <c r="C9" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="21"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="38"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="45"/>
       <c r="N9" s="44"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="44"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="19"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="45"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="47"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="19"/>
+      <c r="C10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="21"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="38"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="45"/>
       <c r="N10" s="44"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="44"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="47"/>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="19"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="45"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="39" t="n">
+      <c r="B11" s="40" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="19"/>
+      <c r="C11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="21"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="38"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="44"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="44"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="19"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="45"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="48"/>
+      <c r="X11" s="48"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="21"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="39" t="n">
+      <c r="B12" s="40" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="C12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="21"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="38"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="45"/>
       <c r="N12" s="44"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="19"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="45"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="21"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="39" t="n">
+      <c r="B13" s="40" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="19"/>
+      <c r="C13" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="38"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="45"/>
       <c r="N13" s="44"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="19"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="45"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="39" t="n">
+      <c r="B14" s="40" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="19"/>
+      <c r="C14" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="38"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="45"/>
       <c r="N14" s="44"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="44"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="19"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="45"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="21"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="39" t="n">
+      <c r="B15" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="19"/>
+      <c r="C15" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="21"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="38"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="45"/>
       <c r="N15" s="44"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="44"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="46"/>
-      <c r="V15" s="47"/>
-      <c r="W15" s="47"/>
-      <c r="X15" s="47"/>
-      <c r="Y15" s="47"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="19"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="45"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="39" t="n">
+      <c r="B16" s="40" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="19"/>
+      <c r="C16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="38"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="45"/>
       <c r="N16" s="44"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="44"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="47"/>
-      <c r="W16" s="47"/>
-      <c r="X16" s="47"/>
-      <c r="Y16" s="47"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="19"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="45"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="21"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="39" t="n">
+      <c r="B17" s="40" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="19"/>
+      <c r="C17" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="21"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="38"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="45"/>
       <c r="N17" s="44"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="44"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="19"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="45"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="39" t="n">
+      <c r="B18" s="40" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="19"/>
+      <c r="C18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="38"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="45"/>
       <c r="N18" s="44"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="44"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="19"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="45"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="48"/>
+      <c r="X18" s="48"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="39" t="n">
+      <c r="B19" s="40" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="19"/>
+      <c r="C19" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="38"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="45"/>
       <c r="N19" s="44"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="44"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="19"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="39" t="n">
+      <c r="B20" s="40" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="19"/>
+      <c r="C20" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="38"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="45"/>
       <c r="N20" s="44"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="44"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="19"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="45"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="39" t="n">
+      <c r="B21" s="40" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="19"/>
+      <c r="C21" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="21"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="38"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="45"/>
       <c r="N21" s="44"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="44"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="19"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="45"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="48"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="39" t="n">
+      <c r="B22" s="40" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="19"/>
+      <c r="C22" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="21"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="38"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="45"/>
       <c r="N22" s="44"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="44"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="19"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="45"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="48"/>
+      <c r="X22" s="48"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="39" t="n">
+      <c r="B23" s="40" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="19"/>
+      <c r="C23" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="21"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="38"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="45"/>
       <c r="N23" s="44"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="19"/>
-      <c r="Q23" s="44"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="19"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="48"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="39" t="n">
+      <c r="B24" s="40" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="19"/>
+      <c r="C24" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="38"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="45"/>
       <c r="N24" s="44"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="44"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="19"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="45"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="48"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="39" t="n">
+      <c r="B25" s="40" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="19"/>
+      <c r="C25" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="21"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="38"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="45"/>
       <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="19"/>
-      <c r="Q25" s="44"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="19"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="45"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48"/>
+      <c r="X25" s="48"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="39" t="n">
+      <c r="B26" s="40" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="19"/>
+      <c r="C26" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="21"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="38"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="45"/>
       <c r="N26" s="44"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="44"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="19"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="45"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="48"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="21"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="39" t="n">
+      <c r="B27" s="40" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="19"/>
+      <c r="C27" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="21"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="38"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="45"/>
       <c r="N27" s="44"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="44"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="19"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="45"/>
+      <c r="S27" s="46"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48"/>
+      <c r="X27" s="48"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="21"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="39" t="n">
+      <c r="B28" s="40" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="19"/>
+      <c r="C28" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="38"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="45"/>
       <c r="N28" s="44"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="44"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="19"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="45"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="48"/>
+      <c r="X28" s="48"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="39" t="n">
+      <c r="B29" s="40" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="19"/>
+      <c r="C29" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="19"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="45"/>
       <c r="N29" s="44"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="44"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="19"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="45"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="39" t="n">
+      <c r="B30" s="40" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="19"/>
+      <c r="C30" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="21"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="19"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="44"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="44"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="19"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="45"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:Z1"/>
+    <mergeCell ref="E1:Y1"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:Y4"/>
   </mergeCells>
-  <dataValidations count="14">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+  <dataValidations count="13">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K6:K30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1958,7 +1959,7 @@
       <formula1>"transmission,fluorescence,both,reference,yield,test"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H30" type="list">
       <formula1>"Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1974,27 +1975,23 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H30" type="decimal">
-      <formula1>4500</formula1>
-      <formula2>23500</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T7:T30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:S30" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6:S30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30" type="decimal">
       <formula1>10</formula1>
       <formula2>400</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R7:R30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="decimal">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6" type="decimal">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -708,9 +708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1227600</xdr:colOff>
+      <xdr:colOff>1227240</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -724,7 +724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2518560" cy="2744280"/>
+          <a:ext cx="2517840" cy="2743920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,10 +744,10 @@
       <xdr:rowOff>106560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>919080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>826200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -756,8 +756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190320" y="6959880"/>
-          <a:ext cx="4648320" cy="1645560"/>
+          <a:off x="3189600" y="6959880"/>
+          <a:ext cx="6645240" cy="1811520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,7 +891,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns R,S,T; leave blank for no motion </a:t>
+            <a:t>5. Specify motor/slit positions in columns Q,R,S; leave blank for no motion </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -929,7 +929,26 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column Z</a:t>
+            <a:t>7. Do not add columns before column Y</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>8. The wheel is correctly mounted if the numbers can be read when facing the wheel</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -950,10 +969,10 @@
   <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
       <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -963,12 +982,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -20,11 +20,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
+    <t xml:space="preserve">Change edge at start?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Close shutter at end?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
     <t xml:space="preserve">File name</t>
   </si>
   <si>
@@ -119,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">best_sample_ever</t>
@@ -219,7 +228,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,17 +243,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFDBB6"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -424,7 +453,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,27 +474,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,7 +510,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -481,7 +518,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,15 +526,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,26 +550,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,6 +571,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,15 +590,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,11 +598,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,7 +614,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,15 +622,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,19 +638,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,7 +658,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -675,7 +712,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -708,9 +745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1227240</xdr:colOff>
+      <xdr:colOff>1226880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -724,7 +761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2517840" cy="2743920"/>
+          <a:ext cx="2517480" cy="2743560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -745,9 +782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>826200</xdr:colOff>
+      <xdr:colOff>825840</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -757,7 +794,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6645240" cy="1811520"/>
+          <a:ext cx="6644880" cy="1811160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,30 +1006,27 @@
   <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
-      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1025,934 +1059,947 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="H2" s="1"/>
+      <c r="E2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="5"/>
+      <c r="J2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
-      <c r="Y2" s="5"/>
+      <c r="Y2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
-      <c r="Y3" s="5"/>
+      <c r="Y3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="22"/>
+    </row>
+    <row r="6" s="23" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="20"/>
-    </row>
-    <row r="6" s="21" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="F6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="H6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="L6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="M6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="36" t="n">
+      <c r="N6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="38" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U6" s="37" t="n">
+      <c r="U6" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="37" t="n">
+      <c r="V6" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="37" t="n">
+      <c r="W6" s="39" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X6" s="37" t="n">
+      <c r="X6" s="39" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="38" t="n">
+      <c r="Y6" s="40" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="39"/>
+      <c r="Z6" s="41"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="40" t="n">
+      <c r="B7" s="42" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="39"/>
+      <c r="C7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="41"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="45"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="21"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="47"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="23"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="40" t="n">
+      <c r="B8" s="42" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="39"/>
+      <c r="C8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="49"/>
-      <c r="Z8" s="21"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="47"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="23"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="40" t="n">
+      <c r="B9" s="42" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="21"/>
+      <c r="C9" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="21"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="47"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="23"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="40" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="21"/>
+      <c r="B10" s="42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="23"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="21"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="47"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="50"/>
+      <c r="V10" s="50"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="23"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="40" t="n">
+      <c r="B11" s="42" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="21"/>
+      <c r="C11" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="23"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="49"/>
-      <c r="Z11" s="21"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="47"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="23"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="40" t="n">
+      <c r="B12" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="21"/>
+      <c r="C12" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="23"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="21"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="47"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="40" t="n">
+      <c r="B13" s="42" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="21"/>
+      <c r="C13" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="21"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="47"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="40" t="n">
+      <c r="B14" s="42" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="21"/>
+      <c r="C14" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="23"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="21"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="47"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="40" t="n">
+      <c r="B15" s="42" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="21"/>
+      <c r="C15" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="21"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="47"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="40" t="n">
+      <c r="B16" s="42" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="21"/>
+      <c r="C16" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="23"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="21"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="47"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="40" t="n">
+      <c r="B17" s="42" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="21"/>
+      <c r="C17" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="21"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="47"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="40" t="n">
+      <c r="B18" s="42" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="21"/>
+      <c r="C18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="21"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="47"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="40" t="n">
+      <c r="B19" s="42" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="21"/>
+      <c r="C19" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="49"/>
-      <c r="Z19" s="21"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="47"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="40" t="n">
+      <c r="B20" s="42" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="21"/>
+      <c r="C20" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="23"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="49"/>
-      <c r="Z20" s="21"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="47"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="50"/>
+      <c r="V20" s="50"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="40" t="n">
+      <c r="B21" s="42" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="21"/>
+      <c r="C21" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="21"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="47"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="40" t="n">
+      <c r="B22" s="42" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="21"/>
+      <c r="C22" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="49"/>
-      <c r="Z22" s="21"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="47"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="40" t="n">
+      <c r="B23" s="42" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="21"/>
+      <c r="C23" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="21"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="47"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="50"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="40" t="n">
+      <c r="B24" s="42" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="C24" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="45"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="49"/>
-      <c r="Z24" s="21"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="47"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="40" t="n">
+      <c r="B25" s="42" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="C25" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="23"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="21"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="47"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="40" t="n">
+      <c r="B26" s="42" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="21"/>
+      <c r="C26" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="48"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="21"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="47"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="40" t="n">
+      <c r="B27" s="42" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="21"/>
+      <c r="C27" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="48"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="21"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="47"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="40" t="n">
+      <c r="B28" s="42" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="21"/>
+      <c r="C28" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="23"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="45"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="21"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="47"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="40" t="n">
+      <c r="B29" s="42" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="21"/>
+      <c r="C29" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="23"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="45"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="48"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="21"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="47"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="40" t="n">
+      <c r="B30" s="42" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="21"/>
+      <c r="C30" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="48"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="21"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="47"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
@@ -1990,7 +2037,7 @@
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t xml:space="preserve">Experimenters:</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add element to filename?</t>
   </si>
   <si>
     <t xml:space="preserve">File name</t>
@@ -453,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -480,6 +483,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -745,9 +752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1226880</xdr:colOff>
+      <xdr:colOff>1226520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -761,7 +768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2517480" cy="2743560"/>
+          <a:ext cx="2517480" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,9 +789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>825840</xdr:colOff>
+      <xdr:colOff>825480</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -793,8 +800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6644880" cy="1811160"/>
+          <a:off x="3190320" y="6959880"/>
+          <a:ext cx="6645600" cy="1810800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,23 +1017,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1073,926 +1083,931 @@
       <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
-      <c r="Y2" s="8"/>
+      <c r="Y2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
-      <c r="Y3" s="8"/>
+      <c r="Y3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="12" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12" t="s">
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="K5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="L5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="M5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="N5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="O5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="Q5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="R5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="S5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="13" t="s">
+      <c r="T5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="13" t="s">
+      <c r="U5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="13" t="s">
+      <c r="V5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="X5" s="13" t="s">
+      <c r="W5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Y5" s="18" t="s">
+      <c r="X5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="Z5" s="22"/>
-    </row>
-    <row r="6" s="23" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="Y5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="Z5" s="23"/>
+    </row>
+    <row r="6" s="24" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="24" t="n">
+      <c r="C6" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="H6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="I6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="J6" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="K6" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="33" t="s">
+      <c r="L6" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="M6" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="35" t="s">
+      <c r="N6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="O6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="38" t="n">
+      <c r="P6" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="39" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U6" s="39" t="n">
+      <c r="U6" s="40" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="39" t="n">
+      <c r="V6" s="40" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="39" t="n">
+      <c r="W6" s="40" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X6" s="39" t="n">
+      <c r="X6" s="40" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="40" t="n">
+      <c r="Y6" s="41" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="41"/>
+      <c r="Z6" s="42"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="42" t="n">
+      <c r="B7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="41"/>
+      <c r="C7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="42"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="23"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="48"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="24"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="42" t="n">
+      <c r="B8" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="41"/>
+      <c r="C8" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="47"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="50"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="50"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="23"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="48"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="42" t="n">
+      <c r="B9" s="43" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="23"/>
+      <c r="C9" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="47"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="23"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="48"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="42" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="23"/>
+      <c r="B10" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="24"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="47"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="50"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="23"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="48"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="51"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="42" t="n">
+      <c r="B11" s="43" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="23"/>
+      <c r="C11" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="24"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="47"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="23"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="48"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42" t="n">
+      <c r="B12" s="43" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="23"/>
+      <c r="C12" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="24"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="47"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="50"/>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="23"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="48"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="24"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="42" t="n">
+      <c r="B13" s="43" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="23"/>
+      <c r="C13" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="24"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="47"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="23"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="48"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="24"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="42" t="n">
+      <c r="B14" s="43" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="23"/>
+      <c r="C14" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="24"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="47"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="50"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="23"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="48"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="42" t="n">
+      <c r="B15" s="43" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="23"/>
+      <c r="C15" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="24"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="47"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="49"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="23"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="42" t="n">
+      <c r="B16" s="43" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="C16" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="24"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="47"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="23"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="42" t="n">
+      <c r="B17" s="43" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="23"/>
+      <c r="C17" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="24"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="47"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="23"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="48"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="24"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="42" t="n">
+      <c r="B18" s="43" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="23"/>
+      <c r="C18" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="24"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="47"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="50"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="23"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="48"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="42" t="n">
+      <c r="B19" s="43" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="23"/>
+      <c r="C19" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="24"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="49"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="23"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="48"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="42" t="n">
+      <c r="B20" s="43" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="23"/>
+      <c r="C20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="50"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="23"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="48"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="42" t="n">
+      <c r="B21" s="43" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="23"/>
+      <c r="C21" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="24"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="47"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="23"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="48"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="42" t="n">
+      <c r="B22" s="43" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="23"/>
+      <c r="C22" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="47"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="49"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="23"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="48"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="42" t="n">
+      <c r="B23" s="43" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="23"/>
+      <c r="C23" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="24"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="47"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="23"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="48"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="42" t="n">
+      <c r="B24" s="43" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="23"/>
+      <c r="C24" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="24"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="47"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="49"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="23"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="42" t="n">
+      <c r="B25" s="43" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="23"/>
+      <c r="C25" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="24"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="47"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="50"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="23"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="48"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="52"/>
+      <c r="Z25" s="24"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="42" t="n">
+      <c r="B26" s="43" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="23"/>
+      <c r="C26" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="24"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="50"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="23"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="52"/>
+      <c r="Z26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="42" t="n">
+      <c r="B27" s="43" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="23"/>
+      <c r="C27" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="24"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="45"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="47"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="49"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="50"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="23"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="52"/>
+      <c r="Z27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="42" t="n">
+      <c r="B28" s="43" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="23"/>
+      <c r="C28" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="47"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="49"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="50"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="23"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="48"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="52"/>
+      <c r="Z28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="42" t="n">
+      <c r="B29" s="43" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="23"/>
+      <c r="C29" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="45"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="47"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="23"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="48"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="52"/>
+      <c r="Z29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="42" t="n">
+      <c r="B30" s="43" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="23"/>
+      <c r="C30" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="47"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="49"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="23"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="48"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="52"/>
+      <c r="Z30" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2008,7 +2023,7 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:Y4"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2061,6 +2076,10 @@
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Beginning,End"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -752,9 +752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1226520</xdr:colOff>
+      <xdr:colOff>1226160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,7 +768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2517480" cy="2743200"/>
+          <a:ext cx="2516760" cy="2742840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,9 +789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>825480</xdr:colOff>
+      <xdr:colOff>825120</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -800,8 +800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190320" y="6959880"/>
-          <a:ext cx="6645600" cy="1810800"/>
+          <a:off x="3189600" y="6959880"/>
+          <a:ext cx="6644880" cy="1810440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1017,7 +1017,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="M10" activeCellId="0" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,7 +2023,7 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:Y4"/>
   </mergeCells>
-  <dataValidations count="14">
+  <dataValidations count="15">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Y30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2034,10 +2034,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6:G30" type="list">
-      <formula1>"transmission,fluorescence,both,reference,yield,test"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H30" type="list">
@@ -2080,6 +2076,14 @@
       <formula1>"No,Beginning,End"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+      <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t xml:space="preserve">Experimenters:</t>
   </si>
@@ -61,6 +61,9 @@
     <t xml:space="preserve">Flags</t>
   </si>
   <si>
+    <t xml:space="preserve">Ancillary information</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slot number</t>
   </si>
   <si>
@@ -131,6 +134,15 @@
   </si>
   <si>
     <t xml:space="preserve">ththth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIF</t>
   </si>
   <si>
     <t xml:space="preserve">Default</t>
@@ -257,7 +269,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -430,6 +442,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -456,7 +479,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -513,6 +536,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -549,8 +576,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -625,18 +652,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -667,6 +698,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -752,9 +787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1226160</xdr:colOff>
+      <xdr:colOff>1225800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>59760</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -768,7 +803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516760" cy="2742840"/>
+          <a:ext cx="2516400" cy="2742480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,9 +824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>825120</xdr:colOff>
+      <xdr:colOff>824760</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -801,7 +836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6644880" cy="1810440"/>
+          <a:ext cx="6644520" cy="1810080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,11 +1048,11 @@
   <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="Z9" activeCellId="0" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1036,7 +1071,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1161,856 +1199,871 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
+      <c r="Z4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="J5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="K5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="N5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="O5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="P5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="16" t="s">
+      <c r="Q5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="R5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="S5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="T5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="U5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="W5" s="14" t="s">
+      <c r="V5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="X5" s="14" t="s">
+      <c r="W5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="Y5" s="19" t="s">
+      <c r="X5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="23"/>
-    </row>
-    <row r="6" s="24" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="25" t="s">
+      <c r="Y5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="27" t="s">
+      <c r="Z5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="AA5" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="31" t="s">
+      <c r="F6" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="G6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="33" t="s">
+      <c r="H6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="I6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="J6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="36" t="s">
+      <c r="K6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="P6" s="37" t="s">
+      <c r="L6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="39" t="n">
+      <c r="M6" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="40" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U6" s="40" t="n">
+      <c r="U6" s="41" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="40" t="n">
+      <c r="V6" s="41" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="40" t="n">
+      <c r="W6" s="41" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X6" s="40" t="n">
+      <c r="X6" s="41" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="41" t="n">
+      <c r="Y6" s="42" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="42"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="43" t="n">
+      <c r="B7" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="42"/>
+      <c r="C7" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="46"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="48"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="52"/>
-      <c r="Z7" s="24"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="55"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="43" t="n">
+      <c r="B8" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="42"/>
+      <c r="C8" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="46"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="48"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="24"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="43" t="n">
+      <c r="B9" s="44" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="C9" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="48"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="24"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="55"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="43" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="24"/>
+      <c r="B10" s="44" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="52"/>
-      <c r="Z10" s="24"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="55"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="43" t="n">
+      <c r="B11" s="44" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="24"/>
+      <c r="C11" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="48"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="52"/>
-      <c r="Z11" s="24"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="50"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="55"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="43" t="n">
+      <c r="B12" s="44" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="24"/>
+      <c r="C12" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="25"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="48"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="24"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="55"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="43" t="n">
+      <c r="B13" s="44" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="24"/>
+      <c r="C13" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="24"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="55"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="43" t="n">
+      <c r="B14" s="44" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="24"/>
+      <c r="C14" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="48"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="24"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="55"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="43" t="n">
+      <c r="B15" s="44" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="24"/>
+      <c r="C15" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="25"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="48"/>
-      <c r="S15" s="49"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="24"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="50"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="55"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="43" t="n">
+      <c r="B16" s="44" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24"/>
+      <c r="C16" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="25"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="24"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="55"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="43" t="n">
+      <c r="B17" s="44" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="24"/>
+      <c r="C17" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="48"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="24"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="50"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="55"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="43" t="n">
+      <c r="B18" s="44" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="24"/>
+      <c r="C18" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="25"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="48"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="24"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="50"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="55"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="43" t="n">
+      <c r="B19" s="44" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="24"/>
+      <c r="C19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="48"/>
-      <c r="S19" s="49"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="24"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="50"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="55"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="43" t="n">
+      <c r="B20" s="44" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="24"/>
+      <c r="C20" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="25"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="48"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="51"/>
-      <c r="V20" s="51"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="24"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="50"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="53"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="55"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="43" t="n">
+      <c r="B21" s="44" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="24"/>
+      <c r="C21" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="25"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="48"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="24"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="50"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="55"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="43" t="n">
+      <c r="B22" s="44" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="24"/>
+      <c r="C22" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="25"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="48"/>
-      <c r="S22" s="49"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="24"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="50"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="55"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="43" t="n">
+      <c r="B23" s="44" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="24"/>
+      <c r="C23" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="25"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="48"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="51"/>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="24"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="50"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="54"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="43" t="n">
+      <c r="B24" s="44" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24"/>
+      <c r="C24" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="25"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="48"/>
-      <c r="S24" s="49"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="24"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="50"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="54"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="43" t="n">
+      <c r="B25" s="44" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="24"/>
+      <c r="C25" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="25"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="48"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="52"/>
-      <c r="Z25" s="24"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="50"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="53"/>
+      <c r="V25" s="53"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="54"/>
+      <c r="Z25" s="55"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="43" t="n">
+      <c r="B26" s="44" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="24"/>
+      <c r="C26" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="25"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="48"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="52"/>
-      <c r="Z26" s="24"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="50"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="53"/>
+      <c r="V26" s="53"/>
+      <c r="W26" s="53"/>
+      <c r="X26" s="53"/>
+      <c r="Y26" s="54"/>
+      <c r="Z26" s="55"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="43" t="n">
+      <c r="B27" s="44" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="24"/>
+      <c r="C27" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="25"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="48"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="52"/>
-      <c r="Z27" s="24"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="50"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="54"/>
+      <c r="Z27" s="55"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="43" t="n">
+      <c r="B28" s="44" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="24"/>
+      <c r="C28" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="25"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="48"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="52"/>
-      <c r="Z28" s="24"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="50"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="53"/>
+      <c r="X28" s="53"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="55"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="43" t="n">
+      <c r="B29" s="44" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="24"/>
+      <c r="C29" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="25"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="48"/>
-      <c r="S29" s="49"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="52"/>
-      <c r="Z29" s="24"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="50"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="54"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="44" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="24"/>
+      <c r="C30" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="25"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="48"/>
-      <c r="S30" s="49"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="24"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="50"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="52"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:Y1"/>
     <mergeCell ref="E2:F2"/>
@@ -2022,6 +2075,7 @@
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
   </mergeCells>
   <dataValidations count="15">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Y30" type="list">
@@ -2056,7 +2110,7 @@
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 Z6:AB6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -787,9 +787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1225800</xdr:colOff>
+      <xdr:colOff>1225440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516400" cy="2742480"/>
+          <a:ext cx="2516040" cy="2742120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,9 +824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>824760</xdr:colOff>
+      <xdr:colOff>824400</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -836,7 +836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6644520" cy="1810080"/>
+          <a:ext cx="6644160" cy="1809720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,11 +1048,11 @@
   <dimension ref="B1:AMJ30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="O7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z9" activeCellId="0" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2126,16 +2126,16 @@
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
-      <formula1>"No,Beginning,End"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+      <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+  <si>
+    <t xml:space="preserve">Sample Wheel</t>
+  </si>
   <si>
     <t xml:space="preserve">Experimenters:</t>
   </si>
@@ -787,9 +790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1225440</xdr:colOff>
+      <xdr:colOff>1225080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -803,7 +806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2516040" cy="2742120"/>
+          <a:ext cx="2515680" cy="2741760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -824,9 +827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>824400</xdr:colOff>
+      <xdr:colOff>824040</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -836,7 +839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6644160" cy="1809720"/>
+          <a:ext cx="6643800" cy="1809360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1052,7 +1055,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1078,8 +1081,11 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
@@ -1108,24 +1114,24 @@
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="E2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
@@ -1163,36 +1169,36 @@
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
@@ -1200,139 +1206,139 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
       <c r="Z4" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V5" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W5" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X5" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="26" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" s="33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L6" s="34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M6" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="39"/>
       <c r="R6" s="38"/>
@@ -1371,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="46"/>
       <c r="E7" s="4"/>
@@ -1400,7 +1406,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="46"/>
       <c r="E8" s="4"/>
@@ -1429,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="4"/>
@@ -1458,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="4"/>
@@ -1487,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="4"/>
@@ -1516,7 +1522,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="4"/>
@@ -1545,7 +1551,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="4"/>
@@ -1574,7 +1580,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="4"/>
@@ -1603,7 +1609,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="4"/>
@@ -1632,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="4"/>
@@ -1661,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="4"/>
@@ -1690,7 +1696,7 @@
         <v>12</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="4"/>
@@ -1719,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="4"/>
@@ -1748,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="4"/>
@@ -1777,7 +1783,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="4"/>
@@ -1806,7 +1812,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="4"/>
@@ -1835,7 +1841,7 @@
         <v>17</v>
       </c>
       <c r="C23" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="4"/>
@@ -1864,7 +1870,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="4"/>
@@ -1893,7 +1899,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="4"/>
@@ -1922,7 +1928,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="4"/>
@@ -1951,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="4"/>
@@ -1980,7 +1986,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="4"/>
@@ -2009,7 +2015,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="4"/>
@@ -2038,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="4"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -17,6 +17,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell!</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -790,9 +813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1225080</xdr:colOff>
+      <xdr:colOff>1224720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -806,7 +829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515680" cy="2741760"/>
+          <a:ext cx="2515320" cy="2741400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,9 +850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>824040</xdr:colOff>
+      <xdr:colOff>823680</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -839,7 +862,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6643800" cy="1809360"/>
+          <a:ext cx="6643440" cy="1809000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,7 +1078,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2152,6 +2175,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -45,7 +45,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
-    <t xml:space="preserve">Sample Wheel</t>
+    <t xml:space="preserve">Sample wheel</t>
   </si>
   <si>
     <t xml:space="preserve">Experimenters:</t>
@@ -269,12 +269,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -505,7 +511,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -514,11 +520,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,7 +536,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -546,23 +556,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -610,75 +620,75 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -778,7 +788,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFCCFF66"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFF99FF"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFDBB6"/>
       <rgbColor rgb="FF3366FF"/>
@@ -813,9 +823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1224720</xdr:colOff>
+      <xdr:colOff>1224360</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -829,7 +839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2515320" cy="2741400"/>
+          <a:ext cx="2514960" cy="2741040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -850,9 +860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>823680</xdr:colOff>
+      <xdr:colOff>823320</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -862,7 +872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6643440" cy="1809000"/>
+          <a:ext cx="6643080" cy="1808640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,7 +1088,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1104,996 +1114,996 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
       <c r="U2" s="0"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
-      <c r="Y2" s="9"/>
+      <c r="Y2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
       <c r="U3" s="0"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
-      <c r="Y3" s="9"/>
+      <c r="Y3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13" t="s">
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13" t="s">
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="14" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="P5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="S5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="24" t="s">
+      <c r="AA5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="24" t="s">
+      <c r="AB5" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" s="25" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="26" t="s">
+    <row r="6" s="26" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="26" t="n">
+      <c r="E6" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="37" t="s">
+      <c r="O6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="38" t="s">
+      <c r="P6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="40" t="n">
+      <c r="Q6" s="40"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="41" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="U6" s="41" t="n">
+      <c r="U6" s="42" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="41" t="n">
+      <c r="V6" s="42" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="41" t="n">
+      <c r="W6" s="42" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="X6" s="41" t="n">
+      <c r="X6" s="42" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="42" t="n">
+      <c r="Y6" s="43" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
       <c r="AMJ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="44" t="n">
+      <c r="B7" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="55"/>
+      <c r="C7" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="51"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="56"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="44" t="n">
+      <c r="B8" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="50"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="53"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53"/>
-      <c r="X8" s="53"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="55"/>
+      <c r="C8" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="51"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="56"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="44" t="n">
+      <c r="B9" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="50"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="55"/>
+      <c r="C9" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="51"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="56"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="44" t="n">
+      <c r="B10" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="50"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="53"/>
-      <c r="X10" s="53"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="55"/>
+      <c r="C10" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="51"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="44" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="50"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="55"/>
+      <c r="B11" s="45" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="51"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="44" t="n">
+      <c r="B12" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="50"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="55"/>
+      <c r="C12" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="51"/>
+      <c r="S12" s="52"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="44" t="n">
+      <c r="B13" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="50"/>
-      <c r="S13" s="51"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="55"/>
+      <c r="C13" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="51"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="44" t="n">
+      <c r="B14" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="50"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="53"/>
-      <c r="X14" s="53"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="55"/>
+      <c r="C14" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="51"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="44" t="n">
+      <c r="B15" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="50"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="53"/>
-      <c r="X15" s="53"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="55"/>
+      <c r="C15" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="51"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="44" t="n">
+      <c r="B16" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="50"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
-      <c r="X16" s="53"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="55"/>
+      <c r="C16" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="51"/>
+      <c r="S16" s="52"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="44" t="n">
+      <c r="B17" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="50"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="55"/>
+      <c r="C17" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="51"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="44" t="n">
+      <c r="B18" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="50"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="54"/>
-      <c r="Z18" s="55"/>
+      <c r="C18" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="51"/>
+      <c r="S18" s="52"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="44" t="n">
+      <c r="B19" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="50"/>
-      <c r="S19" s="51"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="54"/>
-      <c r="Z19" s="55"/>
+      <c r="C19" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="51"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="44" t="n">
+      <c r="B20" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="50"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="53"/>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="55"/>
+      <c r="C20" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="51"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="44" t="n">
+      <c r="B21" s="45" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="50"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="53"/>
-      <c r="X21" s="53"/>
-      <c r="Y21" s="54"/>
-      <c r="Z21" s="55"/>
+      <c r="C21" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="51"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="44" t="n">
+      <c r="B22" s="45" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="50"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="55"/>
+      <c r="C22" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="51"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="44" t="n">
+      <c r="B23" s="45" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="50"/>
-      <c r="S23" s="51"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="54"/>
-      <c r="Z23" s="55"/>
+      <c r="C23" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="51"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="54"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="44" t="n">
+      <c r="B24" s="45" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="50"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="54"/>
-      <c r="Z24" s="55"/>
+      <c r="C24" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="51"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="54"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="44" t="n">
+      <c r="B25" s="45" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="50"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="55"/>
+      <c r="C25" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="51"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="53"/>
+      <c r="U25" s="54"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="44" t="n">
+      <c r="B26" s="45" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="50"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="53"/>
-      <c r="W26" s="53"/>
-      <c r="X26" s="53"/>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="55"/>
+      <c r="C26" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="51"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="53"/>
+      <c r="U26" s="54"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="44" t="n">
+      <c r="B27" s="45" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="50"/>
-      <c r="S27" s="51"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="54"/>
-      <c r="Z27" s="55"/>
+      <c r="C27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="51"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="54"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="54"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="56"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="44" t="n">
+      <c r="B28" s="45" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="50"/>
-      <c r="S28" s="51"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="53"/>
-      <c r="X28" s="53"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="55"/>
+      <c r="C28" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="51"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="53"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="56"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="44" t="n">
+      <c r="B29" s="45" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="50"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="52"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="54"/>
-      <c r="Z29" s="55"/>
+      <c r="C29" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="51"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="53"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="44" t="n">
+      <c r="B30" s="45" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="50"/>
-      <c r="S30" s="51"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="53"/>
-      <c r="V30" s="53"/>
-      <c r="W30" s="53"/>
-      <c r="X30" s="53"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="55"/>
+      <c r="C30" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="51"/>
+      <c r="S30" s="52"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:Y1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -144,6 +144,9 @@
     <t xml:space="preserve">Slit width (absolute width, mm)</t>
   </si>
   <si>
+    <t xml:space="preserve">Detector X</t>
+  </si>
+  <si>
     <t xml:space="preserve">snapshots</t>
   </si>
   <si>
@@ -201,10 +204,10 @@
     <t xml:space="preserve">Welcome to BMM</t>
   </si>
   <si>
-    <t xml:space="preserve">-200  -30  -10 15.5  15k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10  2  0.5  0.05k</t>
+    <t xml:space="preserve">-200  -30  -10 25  15k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10  2  0.3  0.05k</t>
   </si>
   <si>
     <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
@@ -218,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -268,6 +271,13 @@
       <name val="Bitstream Vera Sans"/>
       <family val="0"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Bitstream Vera Sans"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -301,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -359,6 +369,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="hair"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -511,7 +528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -520,7 +537,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -612,6 +629,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -620,22 +641,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -646,36 +663,40 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -688,7 +709,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,9 +844,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1224360</xdr:colOff>
+      <xdr:colOff>1223640</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -839,7 +860,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2514960" cy="2741040"/>
+          <a:ext cx="2514240" cy="2740320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -860,9 +881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>823320</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:colOff>822600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -872,7 +893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6643080" cy="1808640"/>
+          <a:ext cx="6642360" cy="2264400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,7 +1027,53 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>5. Specify motor/slit positions in columns Q,R,S; leave blank for no motion </a:t>
+            <a:t>5. Specify motor/slit positions in columns Q,R,S; leave blank for no motion</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>6. Specify detector position in column T, blank means to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" i="1" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t>not move</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> the detector</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Bitstream Vera Sans"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1044,7 +1111,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t>7. Do not add columns before column Y</a:t>
+            <a:t>7. Do not add columns before column AC</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1081,14 +1148,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:AMJ30"/>
+  <dimension ref="B1:AC30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1106,11 +1173,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="25" min="20" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1142,6 +1210,7 @@
       <c r="W1" s="4"/>
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5"/>
@@ -1172,12 +1241,13 @@
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="0"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="0"/>
       <c r="W2" s="0"/>
       <c r="X2" s="0"/>
-      <c r="Y2" s="10"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5"/>
@@ -1192,12 +1262,13 @@
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="0"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="0"/>
       <c r="W3" s="0"/>
       <c r="X3" s="0"/>
-      <c r="Y3" s="10"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
@@ -1230,19 +1301,20 @@
       </c>
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
-      <c r="T4" s="14" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="15"/>
       <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="16" t="s">
@@ -1296,13 +1368,13 @@
       <c r="R5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="V5" s="16" t="s">
@@ -1314,85 +1386,85 @@
       <c r="X5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Y5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="19" t="s">
+      <c r="Z5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" s="26" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="27" t="s">
+      <c r="AC5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29" t="s">
+    </row>
+    <row r="6" s="27" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="C6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="33" t="s">
+      <c r="I6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="J6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="K6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="M6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="O6" s="38" t="s">
+      <c r="N6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="O6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="41" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
+      <c r="P6" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="42" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="42" t="n">
+      <c r="V6" s="43" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="42" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="42" t="n">
+      <c r="W6" s="43" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="43" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1400,711 +1472,738 @@
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AMJ6" s="0"/>
+      <c r="Z6" s="44" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="45" t="n">
+      <c r="B7" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="47"/>
+      <c r="C7" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="48"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="51"/>
-      <c r="S7" s="52"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="52"/>
+      <c r="S7" s="9"/>
       <c r="T7" s="53"/>
       <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
       <c r="Y7" s="55"/>
       <c r="Z7" s="56"/>
+      <c r="AA7" s="57"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="45" t="n">
+      <c r="B8" s="46" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="47"/>
+      <c r="C8" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="48"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="51"/>
-      <c r="S8" s="52"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="52"/>
+      <c r="S8" s="9"/>
       <c r="T8" s="53"/>
       <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
       <c r="Y8" s="55"/>
       <c r="Z8" s="56"/>
+      <c r="AA8" s="57"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="45" t="n">
+      <c r="B9" s="46" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="26"/>
+      <c r="C9" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="51"/>
-      <c r="S9" s="52"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="52"/>
+      <c r="S9" s="9"/>
       <c r="T9" s="53"/>
       <c r="U9" s="54"/>
-      <c r="V9" s="54"/>
-      <c r="W9" s="54"/>
-      <c r="X9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
       <c r="Y9" s="55"/>
       <c r="Z9" s="56"/>
+      <c r="AA9" s="57"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="45" t="n">
+      <c r="B10" s="46" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="26"/>
+      <c r="C10" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="51"/>
-      <c r="S10" s="52"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="52"/>
+      <c r="S10" s="9"/>
       <c r="T10" s="53"/>
       <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
       <c r="Y10" s="55"/>
       <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="45" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="26"/>
+      <c r="B11" s="46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="51"/>
-      <c r="S11" s="52"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="52"/>
+      <c r="S11" s="9"/>
       <c r="T11" s="53"/>
       <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
       <c r="Y11" s="55"/>
       <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="45" t="n">
+      <c r="B12" s="46" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="26"/>
+      <c r="C12" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="51"/>
-      <c r="S12" s="52"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="52"/>
+      <c r="S12" s="9"/>
       <c r="T12" s="53"/>
       <c r="U12" s="54"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
       <c r="Y12" s="55"/>
       <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="45" t="n">
+      <c r="B13" s="46" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="26"/>
+      <c r="C13" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="27"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="51"/>
-      <c r="S13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="52"/>
+      <c r="S13" s="9"/>
       <c r="T13" s="53"/>
       <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
       <c r="Y13" s="55"/>
       <c r="Z13" s="56"/>
+      <c r="AA13" s="57"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="45" t="n">
+      <c r="B14" s="46" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="26"/>
+      <c r="C14" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="51"/>
-      <c r="S14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="52"/>
+      <c r="S14" s="9"/>
       <c r="T14" s="53"/>
       <c r="U14" s="54"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
       <c r="Y14" s="55"/>
       <c r="Z14" s="56"/>
+      <c r="AA14" s="57"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="45" t="n">
+      <c r="B15" s="46" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="26"/>
+      <c r="C15" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="51"/>
-      <c r="S15" s="52"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="52"/>
+      <c r="S15" s="9"/>
       <c r="T15" s="53"/>
       <c r="U15" s="54"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
       <c r="Y15" s="55"/>
       <c r="Z15" s="56"/>
+      <c r="AA15" s="57"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="45" t="n">
+      <c r="B16" s="46" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="26"/>
+      <c r="C16" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="27"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="51"/>
-      <c r="S16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="52"/>
+      <c r="S16" s="9"/>
       <c r="T16" s="53"/>
       <c r="U16" s="54"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
       <c r="Y16" s="55"/>
       <c r="Z16" s="56"/>
+      <c r="AA16" s="57"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="45" t="n">
+      <c r="B17" s="46" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="26"/>
+      <c r="C17" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="51"/>
-      <c r="S17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="52"/>
+      <c r="S17" s="9"/>
       <c r="T17" s="53"/>
       <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
       <c r="Y17" s="55"/>
       <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="45" t="n">
+      <c r="B18" s="46" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="26"/>
+      <c r="C18" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="27"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="51"/>
-      <c r="S18" s="52"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="52"/>
+      <c r="S18" s="9"/>
       <c r="T18" s="53"/>
       <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
       <c r="Y18" s="55"/>
       <c r="Z18" s="56"/>
+      <c r="AA18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="45" t="n">
+      <c r="B19" s="46" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="26"/>
+      <c r="C19" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="27"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="51"/>
-      <c r="S19" s="52"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="52"/>
+      <c r="S19" s="9"/>
       <c r="T19" s="53"/>
       <c r="U19" s="54"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
       <c r="Y19" s="55"/>
       <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="45" t="n">
+      <c r="B20" s="46" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="26"/>
+      <c r="C20" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="27"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="51"/>
-      <c r="S20" s="52"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="52"/>
+      <c r="S20" s="9"/>
       <c r="T20" s="53"/>
       <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
       <c r="Y20" s="55"/>
       <c r="Z20" s="56"/>
+      <c r="AA20" s="57"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="45" t="n">
+      <c r="B21" s="46" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="26"/>
+      <c r="C21" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="27"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="51"/>
-      <c r="S21" s="52"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="52"/>
+      <c r="S21" s="9"/>
       <c r="T21" s="53"/>
       <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
       <c r="Y21" s="55"/>
       <c r="Z21" s="56"/>
+      <c r="AA21" s="57"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="45" t="n">
+      <c r="B22" s="46" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="26"/>
+      <c r="C22" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="27"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="51"/>
-      <c r="S22" s="52"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="52"/>
+      <c r="S22" s="9"/>
       <c r="T22" s="53"/>
       <c r="U22" s="54"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
       <c r="Y22" s="55"/>
       <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="45" t="n">
+      <c r="B23" s="46" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="26"/>
+      <c r="C23" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="51"/>
-      <c r="S23" s="52"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="52"/>
+      <c r="S23" s="9"/>
       <c r="T23" s="53"/>
       <c r="U23" s="54"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
       <c r="Y23" s="55"/>
       <c r="Z23" s="56"/>
+      <c r="AA23" s="57"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="45" t="n">
+      <c r="B24" s="46" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="26"/>
+      <c r="C24" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="27"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="51"/>
-      <c r="S24" s="52"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="52"/>
+      <c r="S24" s="9"/>
       <c r="T24" s="53"/>
       <c r="U24" s="54"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
       <c r="Y24" s="55"/>
       <c r="Z24" s="56"/>
+      <c r="AA24" s="57"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="45" t="n">
+      <c r="B25" s="46" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="26"/>
+      <c r="C25" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="27"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="51"/>
-      <c r="S25" s="52"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="52"/>
+      <c r="S25" s="9"/>
       <c r="T25" s="53"/>
       <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
+      <c r="AA25" s="57"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="45" t="n">
+      <c r="B26" s="46" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="26"/>
+      <c r="C26" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="27"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="51"/>
-      <c r="S26" s="52"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="52"/>
+      <c r="S26" s="9"/>
       <c r="T26" s="53"/>
       <c r="U26" s="54"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
       <c r="Y26" s="55"/>
       <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="45" t="n">
+      <c r="B27" s="46" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="26"/>
+      <c r="C27" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="27"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="51"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="51"/>
-      <c r="S27" s="52"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="52"/>
+      <c r="S27" s="9"/>
       <c r="T27" s="53"/>
       <c r="U27" s="54"/>
-      <c r="V27" s="54"/>
-      <c r="W27" s="54"/>
-      <c r="X27" s="54"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
       <c r="Y27" s="55"/>
       <c r="Z27" s="56"/>
+      <c r="AA27" s="57"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="45" t="n">
+      <c r="B28" s="46" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="26"/>
+      <c r="C28" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="27"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="51"/>
-      <c r="S28" s="52"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="52"/>
+      <c r="S28" s="9"/>
       <c r="T28" s="53"/>
       <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
       <c r="Y28" s="55"/>
       <c r="Z28" s="56"/>
+      <c r="AA28" s="57"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="45" t="n">
+      <c r="B29" s="46" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="26"/>
+      <c r="C29" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="27"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="51"/>
-      <c r="S29" s="52"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="52"/>
+      <c r="S29" s="9"/>
       <c r="T29" s="53"/>
       <c r="U29" s="54"/>
-      <c r="V29" s="54"/>
-      <c r="W29" s="54"/>
-      <c r="X29" s="54"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
       <c r="Y29" s="55"/>
       <c r="Z29" s="56"/>
+      <c r="AA29" s="57"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="45" t="n">
+      <c r="B30" s="46" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="26"/>
+      <c r="C30" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="27"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="51"/>
-      <c r="S30" s="52"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="52"/>
+      <c r="S30" s="9"/>
       <c r="T30" s="53"/>
       <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
       <c r="Y30" s="55"/>
       <c r="Z30" s="56"/>
+      <c r="AA30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:Y1"/>
+    <mergeCell ref="E1:Z1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
@@ -2112,12 +2211,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="15">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6:Y30" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2145,11 +2244,11 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:S30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:T9 S10:S30" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 Z6:AB6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
@@ -2177,6 +2276,10 @@
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6 T10:T30" type="decimal">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>BR</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -217,9 +217,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -528,7 +529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -681,7 +682,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -738,6 +739,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -844,9 +849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1223640</xdr:colOff>
+      <xdr:colOff>1223280</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -860,7 +865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2514240" cy="2740320"/>
+          <a:ext cx="2513880" cy="2739960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,9 +886,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>822600</xdr:colOff>
+      <xdr:colOff>822240</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -893,7 +898,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6642360" cy="2264400"/>
+          <a:ext cx="6642000" cy="2264040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1064,16 +1069,7 @@
               </a:solidFill>
               <a:latin typeface="Bitstream Vera Sans"/>
             </a:rPr>
-            <a:t> the detector</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Bitstream Vera Sans"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t> the detector </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -1144,41 +1140,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K15" activeCellId="0" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="N6" activeCellId="0" sqref="N6:N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="14" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1497,18 +1490,18 @@
       <c r="K7" s="51"/>
       <c r="L7" s="48"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="51"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="27"/>
       <c r="P7" s="52"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="55"/>
-      <c r="X7" s="55"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="56"/>
-      <c r="AA7" s="57"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="46" t="n">
@@ -1527,18 +1520,18 @@
       <c r="K8" s="51"/>
       <c r="L8" s="48"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="51"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="27"/>
       <c r="P8" s="52"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="55"/>
-      <c r="X8" s="55"/>
-      <c r="Y8" s="55"/>
-      <c r="Z8" s="56"/>
-      <c r="AA8" s="57"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="46" t="n">
@@ -1557,18 +1550,18 @@
       <c r="K9" s="51"/>
       <c r="L9" s="48"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="27"/>
       <c r="P9" s="52"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="57"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="46" t="n">
@@ -1587,18 +1580,18 @@
       <c r="K10" s="51"/>
       <c r="L10" s="48"/>
       <c r="M10" s="52"/>
-      <c r="N10" s="51"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="27"/>
       <c r="P10" s="52"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="57"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="46" t="n">
@@ -1617,18 +1610,18 @@
       <c r="K11" s="51"/>
       <c r="L11" s="48"/>
       <c r="M11" s="52"/>
-      <c r="N11" s="51"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="27"/>
       <c r="P11" s="52"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="57"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="46" t="n">
@@ -1647,18 +1640,18 @@
       <c r="K12" s="51"/>
       <c r="L12" s="48"/>
       <c r="M12" s="52"/>
-      <c r="N12" s="51"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="27"/>
       <c r="P12" s="52"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="54"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="57"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="46" t="n">
@@ -1677,18 +1670,18 @@
       <c r="K13" s="51"/>
       <c r="L13" s="48"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="51"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="27"/>
       <c r="P13" s="52"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="57"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="46" t="n">
@@ -1707,18 +1700,18 @@
       <c r="K14" s="51"/>
       <c r="L14" s="48"/>
       <c r="M14" s="52"/>
-      <c r="N14" s="51"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="27"/>
       <c r="P14" s="52"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="54"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="46" t="n">
@@ -1737,18 +1730,18 @@
       <c r="K15" s="51"/>
       <c r="L15" s="48"/>
       <c r="M15" s="52"/>
-      <c r="N15" s="51"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="27"/>
       <c r="P15" s="52"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="54"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="57"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="46" t="n">
@@ -1767,18 +1760,18 @@
       <c r="K16" s="51"/>
       <c r="L16" s="48"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="51"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="27"/>
       <c r="P16" s="52"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="57"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="46" t="n">
@@ -1797,18 +1790,18 @@
       <c r="K17" s="51"/>
       <c r="L17" s="48"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="51"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="27"/>
       <c r="P17" s="52"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="57"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="46" t="n">
@@ -1827,18 +1820,18 @@
       <c r="K18" s="51"/>
       <c r="L18" s="48"/>
       <c r="M18" s="52"/>
-      <c r="N18" s="51"/>
+      <c r="N18" s="53"/>
       <c r="O18" s="27"/>
       <c r="P18" s="52"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="46" t="n">
@@ -1857,18 +1850,18 @@
       <c r="K19" s="51"/>
       <c r="L19" s="48"/>
       <c r="M19" s="52"/>
-      <c r="N19" s="51"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="27"/>
       <c r="P19" s="52"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="54"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="57"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="46" t="n">
@@ -1887,18 +1880,18 @@
       <c r="K20" s="51"/>
       <c r="L20" s="48"/>
       <c r="M20" s="52"/>
-      <c r="N20" s="51"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="27"/>
       <c r="P20" s="52"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="53"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="57"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="46" t="n">
@@ -1917,18 +1910,18 @@
       <c r="K21" s="51"/>
       <c r="L21" s="48"/>
       <c r="M21" s="52"/>
-      <c r="N21" s="51"/>
+      <c r="N21" s="53"/>
       <c r="O21" s="27"/>
       <c r="P21" s="52"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="54"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="46" t="n">
@@ -1947,18 +1940,18 @@
       <c r="K22" s="51"/>
       <c r="L22" s="48"/>
       <c r="M22" s="52"/>
-      <c r="N22" s="51"/>
+      <c r="N22" s="53"/>
       <c r="O22" s="27"/>
       <c r="P22" s="52"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="54"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="57"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="46" t="n">
@@ -1977,18 +1970,18 @@
       <c r="K23" s="51"/>
       <c r="L23" s="48"/>
       <c r="M23" s="52"/>
-      <c r="N23" s="51"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="27"/>
       <c r="P23" s="52"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="54"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="57"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="46" t="n">
@@ -2007,18 +2000,18 @@
       <c r="K24" s="51"/>
       <c r="L24" s="48"/>
       <c r="M24" s="52"/>
-      <c r="N24" s="51"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="27"/>
       <c r="P24" s="52"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="55"/>
-      <c r="X24" s="55"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="57"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="46" t="n">
@@ -2037,18 +2030,18 @@
       <c r="K25" s="51"/>
       <c r="L25" s="48"/>
       <c r="M25" s="52"/>
-      <c r="N25" s="51"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="27"/>
       <c r="P25" s="52"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="55"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
+      <c r="T25" s="54"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="46" t="n">
@@ -2067,18 +2060,18 @@
       <c r="K26" s="51"/>
       <c r="L26" s="48"/>
       <c r="M26" s="52"/>
-      <c r="N26" s="51"/>
+      <c r="N26" s="53"/>
       <c r="O26" s="27"/>
       <c r="P26" s="52"/>
       <c r="S26" s="9"/>
-      <c r="T26" s="53"/>
-      <c r="U26" s="54"/>
-      <c r="V26" s="55"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="57"/>
+      <c r="T26" s="54"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="46" t="n">
@@ -2097,18 +2090,18 @@
       <c r="K27" s="51"/>
       <c r="L27" s="48"/>
       <c r="M27" s="52"/>
-      <c r="N27" s="51"/>
+      <c r="N27" s="53"/>
       <c r="O27" s="27"/>
       <c r="P27" s="52"/>
       <c r="S27" s="9"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="54"/>
-      <c r="V27" s="55"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="55"/>
-      <c r="Y27" s="55"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="57"/>
+      <c r="T27" s="54"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="46" t="n">
@@ -2127,18 +2120,18 @@
       <c r="K28" s="51"/>
       <c r="L28" s="48"/>
       <c r="M28" s="52"/>
-      <c r="N28" s="51"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="27"/>
       <c r="P28" s="52"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="53"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="57"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="46" t="n">
@@ -2157,18 +2150,18 @@
       <c r="K29" s="51"/>
       <c r="L29" s="27"/>
       <c r="M29" s="52"/>
-      <c r="N29" s="51"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="27"/>
       <c r="P29" s="52"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="53"/>
-      <c r="U29" s="54"/>
-      <c r="V29" s="55"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="57"/>
+      <c r="T29" s="54"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="46" t="n">
@@ -2187,18 +2180,18 @@
       <c r="K30" s="51"/>
       <c r="L30" s="27"/>
       <c r="M30" s="52"/>
-      <c r="N30" s="51"/>
+      <c r="N30" s="53"/>
       <c r="O30" s="27"/>
       <c r="P30" s="52"/>
       <c r="S30" s="9"/>
-      <c r="T30" s="53"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="55"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="57"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2215,7 +2208,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="16">
+  <dataValidations count="13">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2244,25 +2237,9 @@
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:T9 S10:S30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 AA6:AC6" type="decimal">
-      <formula1>-0.1</formula1>
-      <formula2>8</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30" type="decimal">
-      <formula1>10</formula1>
-      <formula2>400</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="decimal">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6" type="decimal">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
@@ -2276,9 +2253,13 @@
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6 T10:T30" type="decimal">
-      <formula1>10</formula1>
-      <formula2>210</formula2>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N30" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -1147,11 +1147,11 @@
   <dimension ref="B1:AC30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="O16" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="N6" activeCellId="0" sqref="N6:N30"/>
+      <selection pane="bottomRight" activeCell="AD16" activeCellId="0" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1169,9 +1169,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Version history" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -38,12 +39,25 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Do NOT change the value of this cell</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -51,6 +65,9 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
+    <t xml:space="preserve">Version: 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Change edge at start?</t>
   </si>
   <si>
@@ -211,16 +228,36 @@
   </si>
   <si>
     <t xml:space="preserve">0.5  0.5  0.5  0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added detector X and ancillary information columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell identifying target instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell identifying spreadsheet version number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -280,7 +317,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,14 +338,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE0C2CD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFE0C2CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -529,7 +572,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,47 +593,51 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -682,7 +729,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,10 +789,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -764,6 +807,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -800,7 +847,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFE0C2CD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -870,7 +917,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1147,11 +1194,11 @@
   <dimension ref="B1:AC30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="O16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="AD16" activeCellId="0" sqref="AD16"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1169,9 +1216,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="21" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="24.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1206,27 +1253,29 @@
       <c r="Z1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -1243,8 +1292,8 @@
       <c r="Z2" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="H3" s="1"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
@@ -1265,234 +1314,234 @@
     </row>
     <row r="4" customFormat="false" ht="23.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14" t="s">
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="15" t="s">
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="G5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="H5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="I5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="J5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="K5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="L5" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="M5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="N5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="P5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="Q5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="R5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="S5" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="T5" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="16" t="s">
+      <c r="U5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="V5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="16" t="s">
+      <c r="W5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="X5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="Y5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="Z5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="26" t="s">
+      <c r="AA5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AB5" s="27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" s="27" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="28" t="s">
+      <c r="AC5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="30" t="s">
+    </row>
+    <row r="6" s="28" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="28" t="n">
+      <c r="C6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="31" t="s">
+      <c r="F6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="H6" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="I6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="K6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="L6" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="38" t="s">
+      <c r="M6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="N6" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="42" t="n">
+      <c r="P6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="43" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="V6" s="43" t="n">
+      <c r="V6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="W6" s="43" t="n">
+      <c r="W6" s="44" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="X6" s="43" t="n">
+      <c r="X6" s="44" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Y6" s="43" t="n">
+      <c r="Y6" s="44" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="44" t="n">
+      <c r="Z6" s="45" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="46" t="n">
+      <c r="B7" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="52"/>
+      <c r="C7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="53"/>
       <c r="S7" s="9"/>
       <c r="T7" s="54"/>
       <c r="U7" s="55"/>
@@ -1504,25 +1553,25 @@
       <c r="AA7" s="58"/>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="46" t="n">
+      <c r="B8" s="47" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="52"/>
+      <c r="C8" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="53"/>
       <c r="S8" s="9"/>
       <c r="T8" s="54"/>
       <c r="U8" s="55"/>
@@ -1534,25 +1583,25 @@
       <c r="AA8" s="58"/>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="46" t="n">
+      <c r="B9" s="47" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="52"/>
+      <c r="C9" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="53"/>
       <c r="S9" s="9"/>
       <c r="T9" s="54"/>
       <c r="U9" s="55"/>
@@ -1564,25 +1613,25 @@
       <c r="AA9" s="58"/>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="46" t="n">
+      <c r="B10" s="47" t="n">
         <v>4</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="52"/>
+      <c r="C10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="53"/>
       <c r="S10" s="9"/>
       <c r="T10" s="54"/>
       <c r="U10" s="55"/>
@@ -1594,25 +1643,25 @@
       <c r="AA10" s="58"/>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="46" t="n">
+      <c r="B11" s="47" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="52"/>
+      <c r="C11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="53"/>
       <c r="S11" s="9"/>
       <c r="T11" s="54"/>
       <c r="U11" s="55"/>
@@ -1624,25 +1673,25 @@
       <c r="AA11" s="58"/>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="46" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="52"/>
+      <c r="B12" s="47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="53"/>
       <c r="S12" s="9"/>
       <c r="T12" s="54"/>
       <c r="U12" s="55"/>
@@ -1654,25 +1703,25 @@
       <c r="AA12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="46" t="n">
+      <c r="B13" s="47" t="n">
         <v>7</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="52"/>
+      <c r="C13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="53"/>
       <c r="S13" s="9"/>
       <c r="T13" s="54"/>
       <c r="U13" s="55"/>
@@ -1684,25 +1733,25 @@
       <c r="AA13" s="58"/>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46" t="n">
+      <c r="B14" s="47" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="52"/>
+      <c r="C14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="53"/>
       <c r="S14" s="9"/>
       <c r="T14" s="54"/>
       <c r="U14" s="55"/>
@@ -1714,25 +1763,25 @@
       <c r="AA14" s="58"/>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="46" t="n">
+      <c r="B15" s="47" t="n">
         <v>9</v>
       </c>
-      <c r="C15" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="52"/>
+      <c r="C15" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="53"/>
       <c r="S15" s="9"/>
       <c r="T15" s="54"/>
       <c r="U15" s="55"/>
@@ -1744,25 +1793,25 @@
       <c r="AA15" s="58"/>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="46" t="n">
+      <c r="B16" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="52"/>
+      <c r="C16" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="53"/>
       <c r="S16" s="9"/>
       <c r="T16" s="54"/>
       <c r="U16" s="55"/>
@@ -1774,25 +1823,25 @@
       <c r="AA16" s="58"/>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="46" t="n">
+      <c r="B17" s="47" t="n">
         <v>11</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="52"/>
+      <c r="C17" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="53"/>
       <c r="S17" s="9"/>
       <c r="T17" s="54"/>
       <c r="U17" s="55"/>
@@ -1804,25 +1853,25 @@
       <c r="AA17" s="58"/>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="46" t="n">
+      <c r="B18" s="47" t="n">
         <v>12</v>
       </c>
-      <c r="C18" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="52"/>
+      <c r="C18" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="53"/>
       <c r="S18" s="9"/>
       <c r="T18" s="54"/>
       <c r="U18" s="55"/>
@@ -1834,25 +1883,25 @@
       <c r="AA18" s="58"/>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="46" t="n">
+      <c r="B19" s="47" t="n">
         <v>13</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="52"/>
+      <c r="C19" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="53"/>
       <c r="S19" s="9"/>
       <c r="T19" s="54"/>
       <c r="U19" s="55"/>
@@ -1864,25 +1913,25 @@
       <c r="AA19" s="58"/>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="46" t="n">
+      <c r="B20" s="47" t="n">
         <v>14</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="52"/>
+      <c r="C20" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="53"/>
       <c r="S20" s="9"/>
       <c r="T20" s="54"/>
       <c r="U20" s="55"/>
@@ -1894,25 +1943,25 @@
       <c r="AA20" s="58"/>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="46" t="n">
+      <c r="B21" s="47" t="n">
         <v>15</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="52"/>
+      <c r="C21" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="53"/>
       <c r="S21" s="9"/>
       <c r="T21" s="54"/>
       <c r="U21" s="55"/>
@@ -1924,25 +1973,25 @@
       <c r="AA21" s="58"/>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="46" t="n">
+      <c r="B22" s="47" t="n">
         <v>16</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="52"/>
+      <c r="C22" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="53"/>
       <c r="S22" s="9"/>
       <c r="T22" s="54"/>
       <c r="U22" s="55"/>
@@ -1954,25 +2003,25 @@
       <c r="AA22" s="58"/>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="46" t="n">
+      <c r="B23" s="47" t="n">
         <v>17</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="52"/>
+      <c r="C23" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="53"/>
       <c r="S23" s="9"/>
       <c r="T23" s="54"/>
       <c r="U23" s="55"/>
@@ -1984,25 +2033,25 @@
       <c r="AA23" s="58"/>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="46" t="n">
+      <c r="B24" s="47" t="n">
         <v>18</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="52"/>
+      <c r="C24" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="53"/>
       <c r="S24" s="9"/>
       <c r="T24" s="54"/>
       <c r="U24" s="55"/>
@@ -2014,25 +2063,25 @@
       <c r="AA24" s="58"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="46" t="n">
+      <c r="B25" s="47" t="n">
         <v>19</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="52"/>
+      <c r="C25" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="28"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="53"/>
       <c r="S25" s="9"/>
       <c r="T25" s="54"/>
       <c r="U25" s="55"/>
@@ -2044,25 +2093,25 @@
       <c r="AA25" s="58"/>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="46" t="n">
+      <c r="B26" s="47" t="n">
         <v>20</v>
       </c>
-      <c r="C26" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="52"/>
+      <c r="C26" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="53"/>
       <c r="S26" s="9"/>
       <c r="T26" s="54"/>
       <c r="U26" s="55"/>
@@ -2074,25 +2123,25 @@
       <c r="AA26" s="58"/>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="46" t="n">
+      <c r="B27" s="47" t="n">
         <v>21</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="52"/>
+      <c r="C27" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="28"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="53"/>
       <c r="S27" s="9"/>
       <c r="T27" s="54"/>
       <c r="U27" s="55"/>
@@ -2104,25 +2153,25 @@
       <c r="AA27" s="58"/>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="46" t="n">
+      <c r="B28" s="47" t="n">
         <v>22</v>
       </c>
-      <c r="C28" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="52"/>
+      <c r="C28" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="53"/>
       <c r="S28" s="9"/>
       <c r="T28" s="54"/>
       <c r="U28" s="55"/>
@@ -2134,25 +2183,25 @@
       <c r="AA28" s="58"/>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="46" t="n">
+      <c r="B29" s="47" t="n">
         <v>23</v>
       </c>
-      <c r="C29" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="52"/>
+      <c r="C29" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="53"/>
       <c r="S29" s="9"/>
       <c r="T29" s="54"/>
       <c r="U29" s="55"/>
@@ -2164,25 +2213,25 @@
       <c r="AA29" s="58"/>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="46" t="n">
+      <c r="B30" s="47" t="n">
         <v>24</v>
       </c>
-      <c r="C30" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="52"/>
+      <c r="C30" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="28"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="53"/>
       <c r="S30" s="9"/>
       <c r="T30" s="54"/>
       <c r="U30" s="55"/>
@@ -2194,9 +2243,10 @@
       <c r="AA30" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:Z1"/>
+    <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="C4:D4"/>
@@ -2208,63 +2258,75 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+  <dataValidations count="16">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H30" type="list">
       <formula1>"Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:T9 S10:S30" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 AA6:AC6" type="decimal">
+      <formula1>-0.1</formula1>
+      <formula2>8</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30" type="decimal">
+      <formula1>10</formula1>
+      <formula2>400</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="decimal">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6" type="decimal">
+      <formula1>-150</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6:T30" type="none">
-      <formula1>-150</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N6:N30" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6 T10:T30" type="decimal">
+      <formula1>10</formula1>
+      <formula2>210</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2272,4 +2334,80 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="59" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t xml:space="preserve">Sample wheel</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t xml:space="preserve">Cell identifying spreadsheet version number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added Ca ans Sc to element column validity, double wheel functionality</t>
   </si>
 </sst>
 </file>
@@ -593,7 +596,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -896,9 +899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1223280</xdr:colOff>
+      <xdr:colOff>1222920</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -912,7 +915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2513880" cy="2739960"/>
+          <a:ext cx="2513880" cy="2739600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,9 +936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>822240</xdr:colOff>
+      <xdr:colOff>821880</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -944,8 +947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3189600" y="6959880"/>
-          <a:ext cx="6642000" cy="2264040"/>
+          <a:off x="3190320" y="6959880"/>
+          <a:ext cx="6642000" cy="2263680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1193,15 +1196,15 @@
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2258,7 +2261,7 @@
     <mergeCell ref="U4:Z4"/>
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
-  <dataValidations count="16">
+  <dataValidations count="17">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
@@ -2269,10 +2272,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6:H30" type="list">
-      <formula1>"Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
@@ -2323,6 +2322,14 @@
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+      <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2341,13 +2348,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -2399,6 +2406,14 @@
       </c>
       <c r="B6" s="0" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/startup/wheel_template.xlsx
+++ b/startup/wheel_template.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author>BR</author>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Experimenters:</t>
   </si>
   <si>
-    <t xml:space="preserve">Version: 5</t>
+    <t xml:space="preserve">Version: 6</t>
   </si>
   <si>
     <t xml:space="preserve">Change edge at start?</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">Cell identifying spreadsheet version number</t>
   </si>
   <si>
-    <t xml:space="preserve">added Ca ans Sc to element column validity, double wheel functionality</t>
+    <t xml:space="preserve">Linkam, double wheel, added Ca ans Sc to element column validity</t>
   </si>
 </sst>
 </file>
@@ -899,9 +899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1222920</xdr:colOff>
+      <xdr:colOff>1222560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -915,12 +915,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="6933960"/>
-          <a:ext cx="2513880" cy="2739600"/>
+          <a:ext cx="2514240" cy="2739240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="0">
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -936,9 +936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>821880</xdr:colOff>
+      <xdr:colOff>821520</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -947,8 +947,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3190320" y="6959880"/>
-          <a:ext cx="6642000" cy="2263680"/>
+          <a:off x="3191040" y="6959880"/>
+          <a:ext cx="6642360" cy="2263320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1190,21 +1190,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:AC30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.01"/>
@@ -2262,78 +2262,78 @@
     <mergeCell ref="AA4:AC4"/>
   </mergeCells>
   <dataValidations count="17">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="U6:Z30" type="list">
       <formula1>"True,False"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="I6:I30" type="list">
       <formula1>"K,L3,L2,L1"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J30" type="list">
       <formula1>"unfocused,focused"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E30" type="whole">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B30" type="whole">
       <formula1>1</formula1>
       <formula2>24</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2 J2 C6:C30" type="list">
       <formula1>"Yes,No"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:T9 S10:S30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S7:T9 S10:S30" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 AA6:AC6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="S6 AA6:AC6" type="decimal">
       <formula1>-0.1</formula1>
       <formula2>8</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R6:R30" type="decimal">
       <formula1>10</formula1>
       <formula2>400</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q7:Q30" type="decimal">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q6" type="decimal">
       <formula1>-150</formula1>
       <formula2>150</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G6" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G7:G30" type="list">
       <formula1>"transmission,fluorescence,both,reference,yield,test,xs"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
       <formula1>"No,Element at beginning,Element at end,Element+edge at beginning,Element+edge at end"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6 T10:T30" type="decimal">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T6 T10:T30" type="decimal">
       <formula1>10</formula1>
       <formula2>210</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H30" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H6" type="list">
       <formula1>"Ca,Sc,Ti,V,Cr,Mn,Fe,Co,Ni,Cu,Zn,Ga,Ge,As,Se,Br,Kr,Rb,Sr,Y,Zr,Nb,Mo,Tc,Ru,Pd,Ag,Cd,In,Sn,Sb,Te,I,Xe,Cs,Ba,La,Ce,Pr,Nd,Pm,Sm,Eu,Gd,Tb,Dy,Ho,Er,Tm,Yb,Lu,Hf,Ta,W,Re,Os,Ir,Pt,Au,Hg,Tl,Pb,Bi,Po,At,Rn,Fr,Ra,Ac,Th,Pa,U,Np,Pu,Am"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2344,17 +2344,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.2"/>
@@ -2419,7 +2419,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
